--- a/resources/coef.xlsx
+++ b/resources/coef.xlsx
@@ -285,49 +285,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>4.2271900000000001E-2</c:v>
+                  <c:v>0.12568299999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.23387E-2</c:v>
+                  <c:v>0.20254800000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2481900000000003E-2</c:v>
+                  <c:v>0.21946599999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2841900000000002E-2</c:v>
+                  <c:v>0.246943</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.40305E-2</c:v>
+                  <c:v>0.31159300000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5892500000000003E-2</c:v>
+                  <c:v>0.264125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5312600000000003E-2</c:v>
+                  <c:v>0.41373500000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.75337E-2</c:v>
+                  <c:v>0.51186799999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0257900000000003E-2</c:v>
+                  <c:v>0.55030599999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.9735299999999998E-2</c:v>
+                  <c:v>0.59895600000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.8864600000000003E-2</c:v>
+                  <c:v>0.59789000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.8012500000000002E-2</c:v>
+                  <c:v>0.59701300000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.7466099999999999E-2</c:v>
+                  <c:v>0.59627200000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.7227399999999998E-2</c:v>
+                  <c:v>0.59563100000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.6840599999999998E-2</c:v>
+                  <c:v>4.5068799999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -427,49 +427,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>4.2271900000000001E-2</c:v>
+                  <c:v>0.247751</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.23387E-2</c:v>
+                  <c:v>0.206012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2481900000000003E-2</c:v>
+                  <c:v>0.221942</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2841900000000002E-2</c:v>
+                  <c:v>0.24884700000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.40305E-2</c:v>
+                  <c:v>0.31310100000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5892500000000003E-2</c:v>
+                  <c:v>0.27174700000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5312600000000003E-2</c:v>
+                  <c:v>0.42100599999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.75337E-2</c:v>
+                  <c:v>0.518957</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0257900000000003E-2</c:v>
+                  <c:v>0.55704600000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.9735299999999998E-2</c:v>
+                  <c:v>0.60543999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.8864600000000003E-2</c:v>
+                  <c:v>0.60417399999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.8012500000000002E-2</c:v>
+                  <c:v>0.60313399999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.7466099999999999E-2</c:v>
+                  <c:v>0.60225600000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.7227399999999998E-2</c:v>
+                  <c:v>0.60149799999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.6840599999999998E-2</c:v>
+                  <c:v>5.0833299999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -569,49 +569,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>4.2271900000000001E-2</c:v>
+                  <c:v>0.17342199999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.23387E-2</c:v>
+                  <c:v>0.31611400000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2481900000000003E-2</c:v>
+                  <c:v>0.22953100000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2841900000000002E-2</c:v>
+                  <c:v>0.255276</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.40305E-2</c:v>
+                  <c:v>0.31872899999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5892500000000003E-2</c:v>
+                  <c:v>0.28636200000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5312600000000003E-2</c:v>
+                  <c:v>0.43490499999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.75337E-2</c:v>
+                  <c:v>0.53248399999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0257900000000003E-2</c:v>
+                  <c:v>0.56986199999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.9735299999999998E-2</c:v>
+                  <c:v>0.61773800000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.8864600000000003E-2</c:v>
+                  <c:v>0.61606799999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.8012500000000002E-2</c:v>
+                  <c:v>0.61470100000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.7466099999999999E-2</c:v>
+                  <c:v>0.61354799999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.7227399999999998E-2</c:v>
+                  <c:v>0.61255400000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.6840599999999998E-2</c:v>
+                  <c:v>6.16839E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -711,49 +711,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>4.2271900000000001E-2</c:v>
+                  <c:v>0.23516200000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.23387E-2</c:v>
+                  <c:v>0.18324099999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2481900000000003E-2</c:v>
+                  <c:v>0.209927</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2841900000000002E-2</c:v>
+                  <c:v>0.24440300000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.40305E-2</c:v>
+                  <c:v>0.31488699999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5892500000000003E-2</c:v>
+                  <c:v>0.23802200000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5312600000000003E-2</c:v>
+                  <c:v>0.38588099999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.75337E-2</c:v>
+                  <c:v>0.48321199999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0257900000000003E-2</c:v>
+                  <c:v>0.52032400000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.9735299999999998E-2</c:v>
+                  <c:v>0.56817799999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.8864600000000003E-2</c:v>
+                  <c:v>0.56659400000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.8012500000000002E-2</c:v>
+                  <c:v>0.56536299999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.7466099999999999E-2</c:v>
+                  <c:v>0.56437099999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.7227399999999998E-2</c:v>
+                  <c:v>0.64911300000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.6840599999999998E-2</c:v>
+                  <c:v>9.7467200000000004E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -853,49 +853,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>4.2271900000000001E-2</c:v>
+                  <c:v>0.45015100000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.23387E-2</c:v>
+                  <c:v>0.28089500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2481900000000003E-2</c:v>
+                  <c:v>0.26603399999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2841900000000002E-2</c:v>
+                  <c:v>0.27781099999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.40305E-2</c:v>
+                  <c:v>0.33310099999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5892500000000003E-2</c:v>
+                  <c:v>0.31158400000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5312600000000003E-2</c:v>
+                  <c:v>0.45037199999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.75337E-2</c:v>
+                  <c:v>0.54323600000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0257900000000003E-2</c:v>
+                  <c:v>0.57228100000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.9735299999999998E-2</c:v>
+                  <c:v>0.61463299999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.8864600000000003E-2</c:v>
+                  <c:v>0.60977300000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.8012500000000002E-2</c:v>
+                  <c:v>0.60533899999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.7466099999999999E-2</c:v>
+                  <c:v>0.60176499999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.7227399999999998E-2</c:v>
+                  <c:v>0.59880500000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.6840599999999998E-2</c:v>
+                  <c:v>4.6300099999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -985,8 +985,8 @@
         <c:axId val="424255759"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6.5000000000000016E-2"/>
-          <c:min val="4.0000000000000008E-2"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8951,15 +8951,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A79"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>4.2271900000000001E-2</v>
+        <v>0.12568299999999999</v>
       </c>
       <c r="B1">
         <v>0.1</v>
@@ -8967,7 +8965,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4.23387E-2</v>
+        <v>0.20254800000000001</v>
       </c>
       <c r="B2">
         <v>0.3</v>
@@ -8975,7 +8973,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4.2481900000000003E-2</v>
+        <v>0.21946599999999999</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -8983,7 +8981,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4.2841900000000002E-2</v>
+        <v>0.246943</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -8991,7 +8989,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4.40305E-2</v>
+        <v>0.31159300000000001</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -8999,7 +8997,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4.5892500000000003E-2</v>
+        <v>0.264125</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -9007,7 +9005,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5.5312600000000003E-2</v>
+        <v>0.41373500000000002</v>
       </c>
       <c r="B7">
         <v>1.3</v>
@@ -9015,7 +9013,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5.75337E-2</v>
+        <v>0.51186799999999999</v>
       </c>
       <c r="B8">
         <v>1.5</v>
@@ -9023,7 +9021,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6.0257900000000003E-2</v>
+        <v>0.55030599999999996</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -9031,7 +9029,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5.9735299999999998E-2</v>
+        <v>0.59895600000000004</v>
       </c>
       <c r="B10">
         <v>2.5</v>
@@ -9039,7 +9037,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5.8864600000000003E-2</v>
+        <v>0.59789000000000003</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -9047,7 +9045,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5.8012500000000002E-2</v>
+        <v>0.59701300000000002</v>
       </c>
       <c r="B12">
         <v>3.5</v>
@@ -9055,7 +9053,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5.7466099999999999E-2</v>
+        <v>0.59627200000000002</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -9063,7 +9061,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5.7227399999999998E-2</v>
+        <v>0.59563100000000002</v>
       </c>
       <c r="B14">
         <v>4.5</v>
@@ -9071,7 +9069,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5.6840599999999998E-2</v>
+        <v>4.5068799999999999E-2</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -9079,7 +9077,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>4.2271900000000001E-2</v>
+        <v>0.247751</v>
       </c>
       <c r="B17">
         <v>0.1</v>
@@ -9087,7 +9085,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>4.23387E-2</v>
+        <v>0.206012</v>
       </c>
       <c r="B18">
         <v>0.3</v>
@@ -9095,7 +9093,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>4.2481900000000003E-2</v>
+        <v>0.221942</v>
       </c>
       <c r="B19">
         <v>0.5</v>
@@ -9103,7 +9101,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4.2841900000000002E-2</v>
+        <v>0.24884700000000001</v>
       </c>
       <c r="B20">
         <v>0.7</v>
@@ -9111,7 +9109,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>4.40305E-2</v>
+        <v>0.31310100000000002</v>
       </c>
       <c r="B21">
         <v>0.9</v>
@@ -9119,7 +9117,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>4.5892500000000003E-2</v>
+        <v>0.27174700000000002</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -9127,7 +9125,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>5.5312600000000003E-2</v>
+        <v>0.42100599999999999</v>
       </c>
       <c r="B23">
         <v>1.3</v>
@@ -9135,7 +9133,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>5.75337E-2</v>
+        <v>0.518957</v>
       </c>
       <c r="B24">
         <v>1.5</v>
@@ -9143,7 +9141,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>6.0257900000000003E-2</v>
+        <v>0.55704600000000004</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -9151,7 +9149,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>5.9735299999999998E-2</v>
+        <v>0.60543999999999998</v>
       </c>
       <c r="B26">
         <v>2.5</v>
@@ -9159,7 +9157,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>5.8864600000000003E-2</v>
+        <v>0.60417399999999999</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -9167,7 +9165,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>5.8012500000000002E-2</v>
+        <v>0.60313399999999995</v>
       </c>
       <c r="B28">
         <v>3.5</v>
@@ -9175,7 +9173,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>5.7466099999999999E-2</v>
+        <v>0.60225600000000001</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -9183,7 +9181,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>5.7227399999999998E-2</v>
+        <v>0.60149799999999998</v>
       </c>
       <c r="B30">
         <v>4.5</v>
@@ -9191,7 +9189,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>5.6840599999999998E-2</v>
+        <v>5.0833299999999998E-2</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -9199,7 +9197,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>4.2271900000000001E-2</v>
+        <v>0.17342199999999999</v>
       </c>
       <c r="B33">
         <v>0.1</v>
@@ -9207,7 +9205,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>4.23387E-2</v>
+        <v>0.31611400000000001</v>
       </c>
       <c r="B34">
         <v>0.3</v>
@@ -9215,7 +9213,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>4.2481900000000003E-2</v>
+        <v>0.22953100000000001</v>
       </c>
       <c r="B35">
         <v>0.5</v>
@@ -9223,7 +9221,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>4.2841900000000002E-2</v>
+        <v>0.255276</v>
       </c>
       <c r="B36">
         <v>0.7</v>
@@ -9231,7 +9229,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>4.40305E-2</v>
+        <v>0.31872899999999998</v>
       </c>
       <c r="B37">
         <v>0.9</v>
@@ -9239,7 +9237,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>4.5892500000000003E-2</v>
+        <v>0.28636200000000001</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -9247,7 +9245,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>5.5312600000000003E-2</v>
+        <v>0.43490499999999999</v>
       </c>
       <c r="B39">
         <v>1.3</v>
@@ -9255,7 +9253,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>5.75337E-2</v>
+        <v>0.53248399999999996</v>
       </c>
       <c r="B40">
         <v>1.5</v>
@@ -9263,7 +9261,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>6.0257900000000003E-2</v>
+        <v>0.56986199999999998</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -9271,7 +9269,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>5.9735299999999998E-2</v>
+        <v>0.61773800000000001</v>
       </c>
       <c r="B42">
         <v>2.5</v>
@@ -9279,7 +9277,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>5.8864600000000003E-2</v>
+        <v>0.61606799999999995</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -9287,7 +9285,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>5.8012500000000002E-2</v>
+        <v>0.61470100000000005</v>
       </c>
       <c r="B44">
         <v>3.5</v>
@@ -9295,7 +9293,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>5.7466099999999999E-2</v>
+        <v>0.61354799999999998</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -9303,7 +9301,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>5.7227399999999998E-2</v>
+        <v>0.61255400000000004</v>
       </c>
       <c r="B46">
         <v>4.5</v>
@@ -9311,7 +9309,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>5.6840599999999998E-2</v>
+        <v>6.16839E-2</v>
       </c>
       <c r="B47">
         <v>5</v>
@@ -9319,7 +9317,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>4.2271900000000001E-2</v>
+        <v>0.23516200000000001</v>
       </c>
       <c r="B49">
         <v>0.1</v>
@@ -9327,7 +9325,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>4.23387E-2</v>
+        <v>0.18324099999999999</v>
       </c>
       <c r="B50">
         <v>0.3</v>
@@ -9335,7 +9333,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>4.2481900000000003E-2</v>
+        <v>0.209927</v>
       </c>
       <c r="B51">
         <v>0.5</v>
@@ -9343,7 +9341,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>4.2841900000000002E-2</v>
+        <v>0.24440300000000001</v>
       </c>
       <c r="B52">
         <v>0.7</v>
@@ -9351,7 +9349,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>4.40305E-2</v>
+        <v>0.31488699999999997</v>
       </c>
       <c r="B53">
         <v>0.9</v>
@@ -9359,7 +9357,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>4.5892500000000003E-2</v>
+        <v>0.23802200000000001</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -9367,7 +9365,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>5.5312600000000003E-2</v>
+        <v>0.38588099999999997</v>
       </c>
       <c r="B55">
         <v>1.3</v>
@@ -9375,7 +9373,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>5.75337E-2</v>
+        <v>0.48321199999999997</v>
       </c>
       <c r="B56">
         <v>1.5</v>
@@ -9383,7 +9381,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>6.0257900000000003E-2</v>
+        <v>0.52032400000000001</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -9391,7 +9389,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>5.9735299999999998E-2</v>
+        <v>0.56817799999999996</v>
       </c>
       <c r="B58">
         <v>2.5</v>
@@ -9399,7 +9397,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>5.8864600000000003E-2</v>
+        <v>0.56659400000000004</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -9407,7 +9405,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>5.8012500000000002E-2</v>
+        <v>0.56536299999999995</v>
       </c>
       <c r="B60">
         <v>3.5</v>
@@ -9415,7 +9413,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>5.7466099999999999E-2</v>
+        <v>0.56437099999999996</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -9423,7 +9421,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>5.7227399999999998E-2</v>
+        <v>0.64911300000000005</v>
       </c>
       <c r="B62">
         <v>4.5</v>
@@ -9431,7 +9429,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>5.6840599999999998E-2</v>
+        <v>9.7467200000000004E-2</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -9439,7 +9437,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>4.2271900000000001E-2</v>
+        <v>0.45015100000000002</v>
       </c>
       <c r="B65">
         <v>0.1</v>
@@ -9447,7 +9445,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>4.23387E-2</v>
+        <v>0.28089500000000001</v>
       </c>
       <c r="B66">
         <v>0.3</v>
@@ -9455,7 +9453,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>4.2481900000000003E-2</v>
+        <v>0.26603399999999999</v>
       </c>
       <c r="B67">
         <v>0.5</v>
@@ -9463,7 +9461,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>4.2841900000000002E-2</v>
+        <v>0.27781099999999997</v>
       </c>
       <c r="B68">
         <v>0.7</v>
@@ -9471,7 +9469,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>4.40305E-2</v>
+        <v>0.33310099999999998</v>
       </c>
       <c r="B69">
         <v>0.9</v>
@@ -9479,7 +9477,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>4.5892500000000003E-2</v>
+        <v>0.31158400000000003</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -9487,7 +9485,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>5.5312600000000003E-2</v>
+        <v>0.45037199999999999</v>
       </c>
       <c r="B71">
         <v>1.3</v>
@@ -9495,7 +9493,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>5.75337E-2</v>
+        <v>0.54323600000000005</v>
       </c>
       <c r="B72">
         <v>1.5</v>
@@ -9503,7 +9501,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>6.0257900000000003E-2</v>
+        <v>0.57228100000000004</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -9511,7 +9509,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>5.9735299999999998E-2</v>
+        <v>0.61463299999999998</v>
       </c>
       <c r="B74">
         <v>2.5</v>
@@ -9519,7 +9517,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>5.8864600000000003E-2</v>
+        <v>0.60977300000000001</v>
       </c>
       <c r="B75">
         <v>3</v>
@@ -9527,7 +9525,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>5.8012500000000002E-2</v>
+        <v>0.60533899999999996</v>
       </c>
       <c r="B76">
         <v>3.5</v>
@@ -9535,7 +9533,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>5.7466099999999999E-2</v>
+        <v>0.60176499999999999</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -9543,7 +9541,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>5.7227399999999998E-2</v>
+        <v>0.59880500000000003</v>
       </c>
       <c r="B78">
         <v>4.5</v>
@@ -9551,7 +9549,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>5.6840599999999998E-2</v>
+        <v>4.6300099999999997E-2</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -9567,7 +9565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:X87"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D60" sqref="D60:I68"/>
     </sheetView>
   </sheetViews>

--- a/resources/coef.xlsx
+++ b/resources/coef.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>2,5</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>норм конус</t>
+  </si>
+  <si>
+    <t>E обтекатель</t>
+  </si>
+  <si>
+    <t>E конус</t>
   </si>
 </sst>
 </file>
@@ -67,7 +73,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -114,11 +120,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -129,9 +148,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -149,7 +176,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -187,7 +214,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -285,49 +312,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.12568299999999999</c:v>
+                  <c:v>0.16797000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20254800000000001</c:v>
+                  <c:v>0.24490200000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21946599999999999</c:v>
+                  <c:v>0.26196399999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.246943</c:v>
+                  <c:v>0.28980400000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31159300000000001</c:v>
+                  <c:v>0.35565099999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.264125</c:v>
+                  <c:v>0.310058</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41373500000000002</c:v>
+                  <c:v>0.46911900000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.51186799999999999</c:v>
+                  <c:v>0.56948699999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.55030599999999996</c:v>
+                  <c:v>0.61067899999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.59895600000000004</c:v>
+                  <c:v>0.65883599999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.59789000000000003</c:v>
+                  <c:v>0.65693000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.59701300000000002</c:v>
+                  <c:v>0.65523100000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.59627200000000002</c:v>
+                  <c:v>0.65397099999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.59563100000000002</c:v>
+                  <c:v>0.65310500000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.5068799999999999E-2</c:v>
+                  <c:v>0.10216600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -427,49 +454,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.247751</c:v>
+                  <c:v>0.29003899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.206012</c:v>
+                  <c:v>0.248367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.221942</c:v>
+                  <c:v>0.26444099999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24884700000000001</c:v>
+                  <c:v>0.291709</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31310100000000002</c:v>
+                  <c:v>0.357159</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27174700000000002</c:v>
+                  <c:v>0.31768000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42100599999999999</c:v>
+                  <c:v>0.47638999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.518957</c:v>
+                  <c:v>0.57657599999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.55704600000000004</c:v>
+                  <c:v>0.61741900000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.60543999999999998</c:v>
+                  <c:v>0.66532000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.60417399999999999</c:v>
+                  <c:v>0.66321399999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.60313399999999995</c:v>
+                  <c:v>0.66135200000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.60225600000000001</c:v>
+                  <c:v>0.65995599999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.60149799999999998</c:v>
+                  <c:v>0.658972</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0833299999999998E-2</c:v>
+                  <c:v>0.107931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -569,49 +596,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.17342199999999999</c:v>
+                  <c:v>0.21570900000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31611400000000001</c:v>
+                  <c:v>0.35846899999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22953100000000001</c:v>
+                  <c:v>0.27202900000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.255276</c:v>
+                  <c:v>0.29813699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31872899999999998</c:v>
+                  <c:v>0.36278700000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28636200000000001</c:v>
+                  <c:v>0.33229500000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.43490499999999999</c:v>
+                  <c:v>0.490288</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.53248399999999996</c:v>
+                  <c:v>0.59010300000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.56986199999999998</c:v>
+                  <c:v>0.63023600000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.61773800000000001</c:v>
+                  <c:v>0.67761800000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.61606799999999995</c:v>
+                  <c:v>0.67510899999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.61470100000000005</c:v>
+                  <c:v>0.67291900000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.61354799999999998</c:v>
+                  <c:v>0.67124700000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.61255400000000004</c:v>
+                  <c:v>0.67002799999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.16839E-2</c:v>
+                  <c:v>0.118781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -711,49 +738,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.23516200000000001</c:v>
+                  <c:v>0.27744999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18324099999999999</c:v>
+                  <c:v>0.22559499999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.209927</c:v>
+                  <c:v>0.25242599999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24440300000000001</c:v>
+                  <c:v>0.28726400000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31488699999999997</c:v>
+                  <c:v>0.35894500000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23802200000000001</c:v>
+                  <c:v>0.28395500000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.38588099999999997</c:v>
+                  <c:v>0.44126500000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.48321199999999997</c:v>
+                  <c:v>0.54083099999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52032400000000001</c:v>
+                  <c:v>0.58069700000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.56817799999999996</c:v>
+                  <c:v>0.62805800000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.56659400000000004</c:v>
+                  <c:v>0.62563500000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.56536299999999995</c:v>
+                  <c:v>0.62358100000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.56437099999999996</c:v>
+                  <c:v>0.62207100000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.64911300000000005</c:v>
+                  <c:v>0.70658699999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.7467200000000004E-2</c:v>
+                  <c:v>0.15456500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -853,49 +880,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.45015100000000002</c:v>
+                  <c:v>0.49243799999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28089500000000001</c:v>
+                  <c:v>0.32324900000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26603399999999999</c:v>
+                  <c:v>0.308533</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27781099999999997</c:v>
+                  <c:v>0.32067299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33310099999999998</c:v>
+                  <c:v>0.37715900000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.31158400000000003</c:v>
+                  <c:v>0.35751699999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.45037199999999999</c:v>
+                  <c:v>0.50575599999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.54323600000000005</c:v>
+                  <c:v>0.60085500000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.57228100000000004</c:v>
+                  <c:v>0.63265400000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.61463299999999998</c:v>
+                  <c:v>0.67451300000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.60977300000000001</c:v>
+                  <c:v>0.66881299999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.60533899999999996</c:v>
+                  <c:v>0.66355699999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.60176499999999999</c:v>
+                  <c:v>0.65946499999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.59880500000000003</c:v>
+                  <c:v>0.65627800000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.6300099999999997E-2</c:v>
+                  <c:v>0.103398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -974,7 +1001,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="424255759"/>
@@ -986,7 +1013,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0"/>
+          <c:min val="4.0000000000000008E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1038,7 +1065,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="424257423"/>
@@ -1079,7 +1106,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1093,7 +1120,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1131,7 +1158,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2233,7 +2260,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530860303"/>
@@ -2295,7 +2322,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530871535"/>
@@ -2336,7 +2363,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2350,7 +2377,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2388,7 +2415,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3154,7 +3181,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530860303"/>
@@ -3216,7 +3243,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530871535"/>
@@ -3257,7 +3284,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3271,7 +3298,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3309,7 +3336,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3511,7 +3538,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556026208"/>
@@ -3576,7 +3603,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556025792"/>
@@ -3617,7 +3644,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3631,7 +3658,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3669,7 +3696,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4276,7 +4303,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530860303"/>
@@ -4339,7 +4366,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530871535"/>
@@ -4380,7 +4407,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4394,7 +4421,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4432,7 +4459,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5039,7 +5066,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530860303"/>
@@ -5102,7 +5129,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="530871535"/>
@@ -5143,7 +5170,462 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$84:$P$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$85:$P$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2846-4BD4-8CE1-B197EF55855A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$84:$P$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$86:$P$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2846-4BD4-8CE1-B197EF55855A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1682322063"/>
+        <c:axId val="1682323311"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1682322063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1682323311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1682323311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1682322063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5394,6 +5876,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7975,6 +8497,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8495,15 +9533,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>517711</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>26333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>50987</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>121584</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8683,13 +9721,43 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8727,7 +9795,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8799,7 +9867,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8951,13 +10019,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.12568299999999999</v>
+        <v>0.16797000000000001</v>
       </c>
       <c r="B1">
         <v>0.1</v>
@@ -8965,7 +10035,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.20254800000000001</v>
+        <v>0.24490200000000001</v>
       </c>
       <c r="B2">
         <v>0.3</v>
@@ -8973,7 +10043,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.21946599999999999</v>
+        <v>0.26196399999999997</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -8981,7 +10051,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.246943</v>
+        <v>0.28980400000000001</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -8989,7 +10059,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.31159300000000001</v>
+        <v>0.35565099999999999</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -8997,7 +10067,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.264125</v>
+        <v>0.310058</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -9005,7 +10075,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.41373500000000002</v>
+        <v>0.46911900000000001</v>
       </c>
       <c r="B7">
         <v>1.3</v>
@@ -9013,7 +10083,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.51186799999999999</v>
+        <v>0.56948699999999997</v>
       </c>
       <c r="B8">
         <v>1.5</v>
@@ -9021,7 +10091,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.55030599999999996</v>
+        <v>0.61067899999999997</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -9029,7 +10099,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.59895600000000004</v>
+        <v>0.65883599999999998</v>
       </c>
       <c r="B10">
         <v>2.5</v>
@@ -9037,7 +10107,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.59789000000000003</v>
+        <v>0.65693000000000001</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -9045,7 +10115,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.59701300000000002</v>
+        <v>0.65523100000000001</v>
       </c>
       <c r="B12">
         <v>3.5</v>
@@ -9053,7 +10123,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.59627200000000002</v>
+        <v>0.65397099999999997</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -9061,7 +10131,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.59563100000000002</v>
+        <v>0.65310500000000005</v>
       </c>
       <c r="B14">
         <v>4.5</v>
@@ -9069,7 +10139,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4.5068799999999999E-2</v>
+        <v>0.10216600000000001</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -9077,7 +10147,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.247751</v>
+        <v>0.29003899999999999</v>
       </c>
       <c r="B17">
         <v>0.1</v>
@@ -9085,7 +10155,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.206012</v>
+        <v>0.248367</v>
       </c>
       <c r="B18">
         <v>0.3</v>
@@ -9093,7 +10163,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.221942</v>
+        <v>0.26444099999999998</v>
       </c>
       <c r="B19">
         <v>0.5</v>
@@ -9101,7 +10171,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.24884700000000001</v>
+        <v>0.291709</v>
       </c>
       <c r="B20">
         <v>0.7</v>
@@ -9109,7 +10179,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.31310100000000002</v>
+        <v>0.357159</v>
       </c>
       <c r="B21">
         <v>0.9</v>
@@ -9117,7 +10187,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.27174700000000002</v>
+        <v>0.31768000000000002</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -9125,7 +10195,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.42100599999999999</v>
+        <v>0.47638999999999998</v>
       </c>
       <c r="B23">
         <v>1.3</v>
@@ -9133,7 +10203,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.518957</v>
+        <v>0.57657599999999998</v>
       </c>
       <c r="B24">
         <v>1.5</v>
@@ -9141,7 +10211,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.55704600000000004</v>
+        <v>0.61741900000000005</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -9149,7 +10219,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.60543999999999998</v>
+        <v>0.66532000000000002</v>
       </c>
       <c r="B26">
         <v>2.5</v>
@@ -9157,7 +10227,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.60417399999999999</v>
+        <v>0.66321399999999997</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -9165,7 +10235,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.60313399999999995</v>
+        <v>0.66135200000000005</v>
       </c>
       <c r="B28">
         <v>3.5</v>
@@ -9173,7 +10243,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.60225600000000001</v>
+        <v>0.65995599999999999</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -9181,7 +10251,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.60149799999999998</v>
+        <v>0.658972</v>
       </c>
       <c r="B30">
         <v>4.5</v>
@@ -9189,7 +10259,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>5.0833299999999998E-2</v>
+        <v>0.107931</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -9197,7 +10267,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.17342199999999999</v>
+        <v>0.21570900000000001</v>
       </c>
       <c r="B33">
         <v>0.1</v>
@@ -9205,7 +10275,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.31611400000000001</v>
+        <v>0.35846899999999998</v>
       </c>
       <c r="B34">
         <v>0.3</v>
@@ -9213,7 +10283,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.22953100000000001</v>
+        <v>0.27202900000000002</v>
       </c>
       <c r="B35">
         <v>0.5</v>
@@ -9221,7 +10291,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.255276</v>
+        <v>0.29813699999999999</v>
       </c>
       <c r="B36">
         <v>0.7</v>
@@ -9229,7 +10299,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.31872899999999998</v>
+        <v>0.36278700000000003</v>
       </c>
       <c r="B37">
         <v>0.9</v>
@@ -9237,7 +10307,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.28636200000000001</v>
+        <v>0.33229500000000001</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -9245,7 +10315,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.43490499999999999</v>
+        <v>0.490288</v>
       </c>
       <c r="B39">
         <v>1.3</v>
@@ -9253,7 +10323,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.53248399999999996</v>
+        <v>0.59010300000000004</v>
       </c>
       <c r="B40">
         <v>1.5</v>
@@ -9261,7 +10331,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.56986199999999998</v>
+        <v>0.63023600000000002</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -9269,7 +10339,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.61773800000000001</v>
+        <v>0.67761800000000005</v>
       </c>
       <c r="B42">
         <v>2.5</v>
@@ -9277,7 +10347,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.61606799999999995</v>
+        <v>0.67510899999999996</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -9285,7 +10355,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.61470100000000005</v>
+        <v>0.67291900000000004</v>
       </c>
       <c r="B44">
         <v>3.5</v>
@@ -9293,7 +10363,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.61354799999999998</v>
+        <v>0.67124700000000004</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -9301,7 +10371,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.61255400000000004</v>
+        <v>0.67002799999999996</v>
       </c>
       <c r="B46">
         <v>4.5</v>
@@ -9309,7 +10379,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>6.16839E-2</v>
+        <v>0.118781</v>
       </c>
       <c r="B47">
         <v>5</v>
@@ -9317,7 +10387,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.23516200000000001</v>
+        <v>0.27744999999999997</v>
       </c>
       <c r="B49">
         <v>0.1</v>
@@ -9325,7 +10395,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.18324099999999999</v>
+        <v>0.22559499999999999</v>
       </c>
       <c r="B50">
         <v>0.3</v>
@@ -9333,7 +10403,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0.209927</v>
+        <v>0.25242599999999998</v>
       </c>
       <c r="B51">
         <v>0.5</v>
@@ -9341,7 +10411,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>0.24440300000000001</v>
+        <v>0.28726400000000002</v>
       </c>
       <c r="B52">
         <v>0.7</v>
@@ -9349,7 +10419,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>0.31488699999999997</v>
+        <v>0.35894500000000001</v>
       </c>
       <c r="B53">
         <v>0.9</v>
@@ -9357,7 +10427,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0.23802200000000001</v>
+        <v>0.28395500000000001</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -9365,7 +10435,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0.38588099999999997</v>
+        <v>0.44126500000000002</v>
       </c>
       <c r="B55">
         <v>1.3</v>
@@ -9373,7 +10443,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>0.48321199999999997</v>
+        <v>0.54083099999999995</v>
       </c>
       <c r="B56">
         <v>1.5</v>
@@ -9381,7 +10451,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0.52032400000000001</v>
+        <v>0.58069700000000002</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -9389,7 +10459,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>0.56817799999999996</v>
+        <v>0.62805800000000001</v>
       </c>
       <c r="B58">
         <v>2.5</v>
@@ -9397,7 +10467,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>0.56659400000000004</v>
+        <v>0.62563500000000005</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -9405,7 +10475,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0.56536299999999995</v>
+        <v>0.62358100000000005</v>
       </c>
       <c r="B60">
         <v>3.5</v>
@@ -9413,7 +10483,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0.56437099999999996</v>
+        <v>0.62207100000000004</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -9421,7 +10491,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0.64911300000000005</v>
+        <v>0.70658699999999997</v>
       </c>
       <c r="B62">
         <v>4.5</v>
@@ -9429,7 +10499,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>9.7467200000000004E-2</v>
+        <v>0.15456500000000001</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -9437,7 +10507,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>0.45015100000000002</v>
+        <v>0.49243799999999999</v>
       </c>
       <c r="B65">
         <v>0.1</v>
@@ -9445,7 +10515,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>0.28089500000000001</v>
+        <v>0.32324900000000001</v>
       </c>
       <c r="B66">
         <v>0.3</v>
@@ -9453,7 +10523,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>0.26603399999999999</v>
+        <v>0.308533</v>
       </c>
       <c r="B67">
         <v>0.5</v>
@@ -9461,7 +10531,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0.27781099999999997</v>
+        <v>0.32067299999999999</v>
       </c>
       <c r="B68">
         <v>0.7</v>
@@ -9469,7 +10539,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>0.33310099999999998</v>
+        <v>0.37715900000000002</v>
       </c>
       <c r="B69">
         <v>0.9</v>
@@ -9477,7 +10547,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>0.31158400000000003</v>
+        <v>0.35751699999999997</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -9485,7 +10555,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>0.45037199999999999</v>
+        <v>0.50575599999999998</v>
       </c>
       <c r="B71">
         <v>1.3</v>
@@ -9493,7 +10563,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>0.54323600000000005</v>
+        <v>0.60085500000000003</v>
       </c>
       <c r="B72">
         <v>1.5</v>
@@ -9501,7 +10571,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>0.57228100000000004</v>
+        <v>0.63265400000000005</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -9509,7 +10579,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>0.61463299999999998</v>
+        <v>0.67451300000000003</v>
       </c>
       <c r="B74">
         <v>2.5</v>
@@ -9517,7 +10587,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>0.60977300000000001</v>
+        <v>0.66881299999999999</v>
       </c>
       <c r="B75">
         <v>3</v>
@@ -9525,7 +10595,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>0.60533899999999996</v>
+        <v>0.66355699999999995</v>
       </c>
       <c r="B76">
         <v>3.5</v>
@@ -9533,7 +10603,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>0.60176499999999999</v>
+        <v>0.65946499999999997</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -9541,7 +10611,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>0.59880500000000003</v>
+        <v>0.65627800000000003</v>
       </c>
       <c r="B78">
         <v>4.5</v>
@@ -9549,7 +10619,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>4.6300099999999997E-2</v>
+        <v>0.103398</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -9563,13 +10633,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:X87"/>
+  <dimension ref="F3:Z98"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60:I68"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
@@ -10543,7 +11616,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F49">
         <v>1</v>
       </c>
@@ -10575,7 +11648,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F50">
         <v>2</v>
       </c>
@@ -10607,7 +11680,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F51">
         <v>4</v>
       </c>
@@ -10639,1035 +11712,1086 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
+    <row r="58" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
         <v>4</v>
       </c>
-      <c r="E59">
+      <c r="H58">
         <v>0</v>
       </c>
-      <c r="F59">
+      <c r="I58">
         <v>0.5</v>
       </c>
-      <c r="G59">
+      <c r="J58">
         <v>1</v>
       </c>
-      <c r="H59">
+      <c r="K58">
         <v>2</v>
       </c>
-      <c r="I59">
+      <c r="L58">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D60" s="2">
+    <row r="59" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="G59" s="2">
         <v>-0.4</v>
       </c>
-      <c r="E60" s="5">
+      <c r="H59" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F60" s="5">
+      <c r="I59" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G60" s="5">
+      <c r="J59" s="5">
         <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K59" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L59" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="G60" s="2">
+        <v>0</v>
       </c>
       <c r="H60" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I60" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="J60" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="K60" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="L60" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="G61" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H61" s="5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I61" s="5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J61" s="5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="K61" s="5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="L61" s="5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="G62" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H62" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I62" s="5">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J62" s="5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="K62" s="5">
+        <v>5.5E-2</v>
+      </c>
+      <c r="L62" s="8">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="G63" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H63" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D61" s="2">
+      <c r="I63" s="5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J63" s="5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="K63" s="5">
+        <v>5.5E-2</v>
+      </c>
+      <c r="L63" s="8">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
+      <c r="Y63" s="10"/>
+      <c r="Z63" s="10"/>
+    </row>
+    <row r="64" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="G64" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="H64" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I64" s="5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="J64" s="5">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="K64" s="5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="L64" s="8">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+      <c r="Y64" s="10"/>
+      <c r="Z64" s="10"/>
+    </row>
+    <row r="65" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="G65" s="2">
+        <v>2</v>
+      </c>
+      <c r="H65" s="5">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I65" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="J65" s="5">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="K65" s="5">
+        <v>4.7E-2</v>
+      </c>
+      <c r="L65" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
+      <c r="Y65" s="10"/>
+      <c r="Z65" s="10"/>
+    </row>
+    <row r="66" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="G66" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="H66" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="I66" s="5">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="J66" s="5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="K66" s="5">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="L66" s="8">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="10"/>
+      <c r="Y66" s="10"/>
+      <c r="Z66" s="10"/>
+    </row>
+    <row r="67" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="G67" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H67" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="I67" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J67" s="5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="K67" s="5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="L67" s="8">
+        <v>4.7E-2</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
+      <c r="Y67" s="10"/>
+      <c r="Z67" s="10"/>
+    </row>
+    <row r="68" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="10"/>
+      <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
+      <c r="Y68" s="10"/>
+      <c r="Z68" s="10"/>
+    </row>
+    <row r="69" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="10"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="10"/>
+      <c r="Y69" s="10"/>
+      <c r="Z69" s="10"/>
+    </row>
+    <row r="70" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="10"/>
+      <c r="X70" s="10"/>
+      <c r="Y70" s="10"/>
+      <c r="Z70" s="10"/>
+    </row>
+    <row r="71" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>5</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="10"/>
+      <c r="Y71" s="10"/>
+      <c r="Z71" s="10"/>
+    </row>
+    <row r="72" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="H72">
         <v>0</v>
       </c>
-      <c r="E61" s="5">
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>2</v>
+      </c>
+      <c r="K72">
+        <v>3</v>
+      </c>
+      <c r="L72">
+        <v>4</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10"/>
+      <c r="S72" s="10"/>
+      <c r="T72" s="10"/>
+      <c r="U72" s="10"/>
+      <c r="V72" s="10"/>
+      <c r="W72" s="10"/>
+      <c r="X72" s="10"/>
+      <c r="Y72" s="10"/>
+      <c r="Z72" s="10"/>
+    </row>
+    <row r="73" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="G73" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="H73" s="7">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F61" s="5">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="G61" s="5">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="H61" s="5">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="I61" s="5">
-        <v>3.6999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D62" s="2">
+      <c r="I73" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J73" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K73" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L73" s="9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="10"/>
+      <c r="U73" s="10"/>
+      <c r="V73" s="10"/>
+      <c r="W73" s="10"/>
+      <c r="X73" s="10"/>
+      <c r="Y73" s="10"/>
+      <c r="Z73" s="10"/>
+    </row>
+    <row r="74" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="G74" s="2">
+        <v>0</v>
+      </c>
+      <c r="H74" s="7">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I74" s="7">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J74" s="7">
+        <v>3.9E-2</v>
+      </c>
+      <c r="K74" s="7">
+        <v>3.9E-2</v>
+      </c>
+      <c r="L74" s="9">
+        <v>3.9E-2</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="10"/>
+      <c r="Z74" s="10"/>
+    </row>
+    <row r="75" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="G75" s="2">
         <v>0.4</v>
       </c>
-      <c r="E62" s="5">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="F62" s="5">
+      <c r="H75" s="7">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I75" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J75" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="K75" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="L75" s="9">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="10"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="10"/>
+      <c r="Z75" s="10"/>
+    </row>
+    <row r="76" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="G76" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H76" s="7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I76" s="7">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="J76" s="7">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="K76" s="7">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="L76" s="9">
+        <v>5.5E-2</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
+      <c r="T76" s="10"/>
+      <c r="U76" s="10"/>
+      <c r="V76" s="10"/>
+      <c r="W76" s="10"/>
+      <c r="X76" s="10"/>
+      <c r="Y76" s="10"/>
+      <c r="Z76" s="10"/>
+    </row>
+    <row r="77" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="G77" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H77" s="7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I77" s="7">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G62" s="5">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="H62" s="5">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="I62" s="5">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D63" s="2">
+      <c r="J77" s="7">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="K77" s="7">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="L77" s="9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
+      <c r="V77" s="10"/>
+      <c r="W77" s="10"/>
+      <c r="X77" s="10"/>
+      <c r="Y77" s="10"/>
+      <c r="Z77" s="10"/>
+    </row>
+    <row r="78" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="G78" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="H78" s="7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I78" s="7">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="J78" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="K78" s="7">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="L78" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="10"/>
+      <c r="S78" s="10"/>
+      <c r="T78" s="10"/>
+      <c r="U78" s="10"/>
+      <c r="V78" s="10"/>
+      <c r="W78" s="10"/>
+      <c r="X78" s="10"/>
+      <c r="Y78" s="10"/>
+      <c r="Z78" s="10"/>
+    </row>
+    <row r="79" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="G79" s="2">
+        <v>2</v>
+      </c>
+      <c r="H79" s="7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I79" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="J79" s="7">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="K79" s="7">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="L79" s="9">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="10"/>
+      <c r="S79" s="10"/>
+      <c r="T79" s="10"/>
+      <c r="U79" s="10"/>
+      <c r="V79" s="10"/>
+      <c r="W79" s="10"/>
+      <c r="X79" s="10"/>
+      <c r="Y79" s="10"/>
+      <c r="Z79" s="10"/>
+    </row>
+    <row r="80" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="G80" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="H80" s="7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I80" s="7">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J80" s="7">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="K80" s="7">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="L80" s="9">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="10"/>
+      <c r="S80" s="10"/>
+      <c r="T80" s="10"/>
+      <c r="U80" s="10"/>
+      <c r="V80" s="10"/>
+      <c r="W80" s="10"/>
+      <c r="X80" s="10"/>
+      <c r="Y80" s="10"/>
+      <c r="Z80" s="10"/>
+    </row>
+    <row r="81" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="G81" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H81" s="7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I81" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="J81" s="7">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="K81" s="7">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="L81" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="10"/>
+      <c r="S81" s="10"/>
+      <c r="T81" s="10"/>
+      <c r="U81" s="10"/>
+      <c r="V81" s="10"/>
+      <c r="W81" s="10"/>
+      <c r="X81" s="10"/>
+      <c r="Y81" s="10"/>
+      <c r="Z81" s="10"/>
+    </row>
+    <row r="82" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="10"/>
+      <c r="S82" s="10"/>
+      <c r="T82" s="10"/>
+      <c r="U82" s="10"/>
+      <c r="V82" s="10"/>
+      <c r="W82" s="10"/>
+      <c r="X82" s="10"/>
+      <c r="Y82" s="10"/>
+      <c r="Z82" s="10"/>
+    </row>
+    <row r="83" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="10"/>
+      <c r="S83" s="10"/>
+      <c r="T83" s="10"/>
+      <c r="U83" s="10"/>
+      <c r="V83" s="10"/>
+      <c r="W83" s="10"/>
+      <c r="X83" s="10"/>
+      <c r="Y83" s="10"/>
+      <c r="Z83" s="10"/>
+    </row>
+    <row r="84" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="G84" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="H84" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="I84" s="2">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="K84" s="2">
         <v>0.8</v>
       </c>
-      <c r="E63" s="5">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="F63" s="5">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="G63" s="5">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="H63" s="5">
-        <v>5.5E-2</v>
-      </c>
-      <c r="I63" s="5">
-        <v>5.5E-2</v>
-      </c>
-      <c r="K63" s="1">
+      <c r="L84" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="M84" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="N84" s="2">
+        <v>2</v>
+      </c>
+      <c r="O84" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="P84" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="10"/>
+      <c r="S84" s="10"/>
+      <c r="T84" s="10"/>
+      <c r="U84" s="10"/>
+      <c r="V84" s="10"/>
+      <c r="W84" s="10"/>
+      <c r="X84" s="10"/>
+      <c r="Y84" s="10"/>
+      <c r="Z84" s="10"/>
+    </row>
+    <row r="85" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>6</v>
+      </c>
+      <c r="G85" s="12">
+        <v>-0.3</v>
+      </c>
+      <c r="H85" s="12">
+        <v>-0.3</v>
+      </c>
+      <c r="I85" s="12">
         <v>0</v>
       </c>
-      <c r="L63" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="M63" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N63" s="1">
+      <c r="J85">
+        <v>0.35</v>
+      </c>
+      <c r="K85" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="L85" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="M85" s="12">
         <v>1</v>
       </c>
-      <c r="O63" s="1">
+      <c r="N85" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O85" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P85" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="10"/>
+      <c r="S85" s="10"/>
+      <c r="T85" s="10"/>
+      <c r="U85" s="10"/>
+      <c r="V85" s="10"/>
+      <c r="W85" s="10"/>
+      <c r="X85" s="10"/>
+      <c r="Y85" s="10"/>
+      <c r="Z85" s="10"/>
+    </row>
+    <row r="86" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
+        <v>7</v>
+      </c>
+      <c r="G86" s="12">
+        <v>-0.2</v>
+      </c>
+      <c r="H86" s="12">
+        <v>-0.2</v>
+      </c>
+      <c r="I86" s="12">
+        <v>-0.15</v>
+      </c>
+      <c r="J86" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="K86" s="12">
+        <v>0</v>
+      </c>
+      <c r="L86" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M86" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="N86" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O86" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="P86" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="10"/>
+      <c r="S86" s="10"/>
+      <c r="T86" s="10"/>
+      <c r="U86" s="10"/>
+      <c r="V86" s="10"/>
+      <c r="W86" s="10"/>
+      <c r="X86" s="10"/>
+      <c r="Y86" s="10"/>
+      <c r="Z86" s="10"/>
+    </row>
+    <row r="87" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="12"/>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="10"/>
+      <c r="S87" s="10"/>
+      <c r="T87" s="10"/>
+      <c r="U87" s="10"/>
+      <c r="V87" s="10"/>
+      <c r="W87" s="10"/>
+      <c r="X87" s="10"/>
+      <c r="Y87" s="10"/>
+      <c r="Z87" s="10"/>
+    </row>
+    <row r="88" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="10"/>
+      <c r="Q88" s="10"/>
+      <c r="R88" s="10"/>
+      <c r="S88" s="10"/>
+      <c r="T88" s="10"/>
+      <c r="U88" s="10"/>
+      <c r="V88" s="10"/>
+      <c r="W88" s="10"/>
+      <c r="X88" s="10"/>
+      <c r="Y88" s="10"/>
+      <c r="Z88" s="10"/>
+    </row>
+    <row r="89" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="G89" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="H89" s="12">
+        <v>-0.3</v>
+      </c>
+      <c r="I89" s="12">
+        <v>-0.2</v>
+      </c>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="10"/>
+      <c r="P89" s="10"/>
+      <c r="Q89" s="10"/>
+      <c r="R89" s="10"/>
+      <c r="S89" s="10"/>
+      <c r="T89" s="10"/>
+      <c r="U89" s="10"/>
+      <c r="V89" s="10"/>
+      <c r="W89" s="10"/>
+      <c r="X89" s="10"/>
+      <c r="Y89" s="10"/>
+      <c r="Z89" s="10"/>
+    </row>
+    <row r="90" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="G90" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="H90" s="12">
+        <v>-0.3</v>
+      </c>
+      <c r="I90" s="12">
+        <v>-0.2</v>
+      </c>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="10"/>
+      <c r="P90" s="10"/>
+      <c r="Q90" s="10"/>
+      <c r="R90" s="10"/>
+      <c r="S90" s="10"/>
+      <c r="T90" s="10"/>
+      <c r="U90" s="10"/>
+      <c r="V90" s="10"/>
+      <c r="W90" s="10"/>
+      <c r="X90" s="10"/>
+      <c r="Y90" s="10"/>
+      <c r="Z90" s="10"/>
+    </row>
+    <row r="91" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="G91" s="2">
+        <v>0</v>
+      </c>
+      <c r="H91" s="12">
+        <v>0</v>
+      </c>
+      <c r="I91" s="12">
+        <v>-0.15</v>
+      </c>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="10"/>
+      <c r="Q91" s="10"/>
+      <c r="R91" s="10"/>
+      <c r="S91" s="10"/>
+      <c r="T91" s="10"/>
+      <c r="U91" s="10"/>
+      <c r="V91" s="10"/>
+      <c r="W91" s="10"/>
+      <c r="X91" s="10"/>
+      <c r="Y91" s="10"/>
+      <c r="Z91" s="10"/>
+    </row>
+    <row r="92" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="G92" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H92">
+        <v>0.35</v>
+      </c>
+      <c r="I92" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="10"/>
+      <c r="P92" s="10"/>
+      <c r="Q92" s="10"/>
+      <c r="R92" s="10"/>
+      <c r="S92" s="10"/>
+      <c r="T92" s="10"/>
+      <c r="U92" s="10"/>
+      <c r="V92" s="10"/>
+      <c r="W92" s="10"/>
+      <c r="X92" s="10"/>
+      <c r="Y92" s="10"/>
+      <c r="Z92" s="10"/>
+    </row>
+    <row r="93" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="G93" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H93" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="I93" s="12">
+        <v>0</v>
+      </c>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="10"/>
+      <c r="P93" s="10"/>
+      <c r="Q93" s="10"/>
+      <c r="R93" s="10"/>
+      <c r="S93" s="10"/>
+      <c r="T93" s="10"/>
+      <c r="U93" s="10"/>
+      <c r="V93" s="10"/>
+      <c r="W93" s="10"/>
+      <c r="X93" s="10"/>
+      <c r="Y93" s="10"/>
+      <c r="Z93" s="10"/>
+    </row>
+    <row r="94" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="G94" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H94" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="I94" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="95" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="G95" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="H95" s="12">
+        <v>1</v>
+      </c>
+      <c r="I95" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="96" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="G96" s="2">
         <v>2</v>
       </c>
-      <c r="P63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="1">
-        <v>3</v>
-      </c>
-      <c r="R63" s="1">
-        <v>4</v>
-      </c>
-      <c r="S63" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D64" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="E64" s="5">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="F64" s="5">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="G64" s="5">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="H64" s="5">
-        <v>5.5E-2</v>
-      </c>
-      <c r="I64" s="5">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="L64" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="M64" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="N64" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="O64" s="2">
-        <v>0</v>
-      </c>
-      <c r="P64" s="2">
-        <v>-0.02</v>
-      </c>
-      <c r="Q64" s="2">
-        <v>-0.02</v>
-      </c>
-      <c r="R64" s="2">
-        <v>-0.02</v>
-      </c>
-      <c r="S64" s="2">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="65" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D65" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="E65" s="5">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="F65" s="5">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="G65" s="5">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="H65" s="5">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="I65" s="5">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="J65">
+      <c r="H96" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I96" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="97" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G97" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="H97" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I97" s="12">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="98" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G98" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="H98" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I98" s="12">
         <v>0.4</v>
-      </c>
-      <c r="K65" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="L65" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="M65" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="N65" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="O65" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="P65" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="2">
-        <v>0</v>
-      </c>
-      <c r="R65" s="2">
-        <v>0</v>
-      </c>
-      <c r="S65" s="2">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="66" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D66" s="2">
-        <v>2</v>
-      </c>
-      <c r="E66" s="5">
-        <v>3.1E-2</v>
-      </c>
-      <c r="F66" s="5">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="G66" s="5">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="H66" s="5">
-        <v>4.7E-2</v>
-      </c>
-      <c r="I66" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="J66">
-        <v>0.8</v>
-      </c>
-      <c r="K66" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="L66" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="M66" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="N66" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="O66" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="P66" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="Q66" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="R66" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="S66" s="2">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>0.8</v>
-      </c>
-      <c r="X66" s="2">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="67" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D67" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="E67" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="F67" s="5">
-        <v>3.5499999999999997E-2</v>
-      </c>
-      <c r="G67" s="5">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="H67" s="5">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="I67" s="5">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="J67">
-        <v>1.2</v>
-      </c>
-      <c r="K67" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="L67" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="M67" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N67" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="O67" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="P67" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="Q67" s="4">
-        <v>0.11</v>
-      </c>
-      <c r="R67" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="S67" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="W67">
-        <v>1</v>
-      </c>
-      <c r="X67" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="68" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D68" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="E68" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="F68" s="5">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G68" s="5">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="H68" s="5">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="I68" s="5">
-        <v>4.7E-2</v>
-      </c>
-      <c r="J68">
-        <v>1.6</v>
-      </c>
-      <c r="K68" s="2">
-        <v>1.35</v>
-      </c>
-      <c r="L68" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="M68" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="N68" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O68" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="P68" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Q68" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="R68" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="S68" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="W68">
-        <v>1.4</v>
-      </c>
-      <c r="X68" s="2">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="69" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="J69">
-        <v>2</v>
-      </c>
-      <c r="K69" s="2">
-        <v>1.45</v>
-      </c>
-      <c r="L69" s="2">
-        <v>1</v>
-      </c>
-      <c r="M69" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="N69" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O69" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="P69" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Q69" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="R69" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="S69" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="W69">
-        <v>1.8</v>
-      </c>
-      <c r="X69" s="2">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="70" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="J70">
-        <v>2.4</v>
-      </c>
-      <c r="K70" s="2">
-        <v>1.55</v>
-      </c>
-      <c r="L70" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="M70" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="N70" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="O70" s="2">
-        <v>0.19</v>
-      </c>
-      <c r="P70" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="Q70" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R70" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="S70" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="W70">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="X70" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="J71">
-        <v>2.8</v>
-      </c>
-      <c r="K71" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="L71" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M71" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="N71" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="O71" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="P71" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="Q71" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="R71" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="S71" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="W71">
-        <v>2.6</v>
-      </c>
-      <c r="X71" s="2">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="72" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72">
-        <v>4</v>
-      </c>
-      <c r="K72" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="L72" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M72" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="N72" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="O72" s="5">
-        <v>0.17</v>
-      </c>
-      <c r="P72" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="Q72" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="R72" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="S72" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="W72">
-        <v>3</v>
-      </c>
-      <c r="X72" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="73" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73">
-        <v>2</v>
-      </c>
-      <c r="H73">
-        <v>3</v>
-      </c>
-      <c r="I73">
-        <v>4</v>
-      </c>
-      <c r="J73">
-        <v>5</v>
-      </c>
-      <c r="K73" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="L73" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M73" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="N73" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="O73" s="5">
-        <v>0.16</v>
-      </c>
-      <c r="P73" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="Q73" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="R73" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="S73" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="W73">
-        <v>3.4</v>
-      </c>
-      <c r="X73" s="2">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="74" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D74" s="2">
-        <v>-0.4</v>
-      </c>
-      <c r="E74" s="7">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="F74" s="7">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G74" s="7">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="H74" s="7">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="I74" s="7">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="W74">
-        <v>3.8</v>
-      </c>
-      <c r="X74" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D75" s="2">
-        <v>0</v>
-      </c>
-      <c r="E75" s="7">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="F75" s="7">
-        <v>3.9E-2</v>
-      </c>
-      <c r="G75" s="7">
-        <v>3.9E-2</v>
-      </c>
-      <c r="H75" s="7">
-        <v>3.9E-2</v>
-      </c>
-      <c r="I75" s="7">
-        <v>3.9E-2</v>
-      </c>
-      <c r="W75">
-        <v>4.2</v>
-      </c>
-      <c r="X75" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D76" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="E76" s="7">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="F76" s="7">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="G76" s="7">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="H76" s="7">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="I76" s="7">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="W76">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="X76" s="2">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="77" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D77" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="E77" s="7">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="F77" s="7">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="G77" s="7">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="H77" s="7">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="I77" s="7">
-        <v>5.5E-2</v>
-      </c>
-      <c r="W77">
-        <v>5</v>
-      </c>
-      <c r="X77" s="2">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="78" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D78" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="E78" s="7">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="F78" s="7">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="G78" s="7">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="H78" s="7">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="I78" s="7">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="M78" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="N78" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="O78" s="5">
-        <v>0</v>
-      </c>
-      <c r="P78" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D79" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="E79" s="7">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="F79" s="7">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="G79" s="7">
-        <v>5.5E-2</v>
-      </c>
-      <c r="H79" s="7">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="I79" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="K79">
-        <v>0.4</v>
-      </c>
-      <c r="L79" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="M79" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="N79" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="O79" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="P79" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="Q79" s="5">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="80" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="D80" s="2">
-        <v>2</v>
-      </c>
-      <c r="E80" s="7">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="F80" s="7">
-        <v>0.04</v>
-      </c>
-      <c r="G80" s="7">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="H80" s="7">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="I80" s="7">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="K80">
-        <v>0.8</v>
-      </c>
-      <c r="L80" s="5">
-        <v>0.32</v>
-      </c>
-      <c r="M80" s="5">
-        <v>0.24</v>
-      </c>
-      <c r="N80" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="O80" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="P80" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="Q80" s="5">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="81" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D81" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="E81" s="7">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="F81" s="7">
-        <v>3.9E-2</v>
-      </c>
-      <c r="G81" s="7">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="H81" s="7">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="I81" s="7">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="K81">
-        <v>1.2</v>
-      </c>
-      <c r="L81" s="5">
-        <v>0.41</v>
-      </c>
-      <c r="M81" s="5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="N81" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="O81" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="P81" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="Q81" s="5">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="82" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D82" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="E82" s="7">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="F82" s="7">
-        <v>0.04</v>
-      </c>
-      <c r="G82" s="7">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="H82" s="7">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="I82" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="K82">
-        <v>1.6</v>
-      </c>
-      <c r="L82" s="5">
-        <v>0.34</v>
-      </c>
-      <c r="M82" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="N82" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="O82" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="P82" s="5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q82" s="5">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="83" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="K83">
-        <v>2</v>
-      </c>
-      <c r="L83" s="5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="M83" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="N83" s="5">
-        <v>0.13</v>
-      </c>
-      <c r="O83" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="P83" s="5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q83" s="5">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="84" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="K84">
-        <v>2.4</v>
-      </c>
-      <c r="L84" s="5">
-        <v>0.27</v>
-      </c>
-      <c r="M84" s="5">
-        <v>0.16</v>
-      </c>
-      <c r="N84" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="O84" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="P84" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="Q84" s="5">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="85" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="K85">
-        <v>2.8</v>
-      </c>
-      <c r="L85" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="M85" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="N85" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="O85" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="P85" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="Q85" s="5">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="86" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="K86">
-        <v>4</v>
-      </c>
-      <c r="L86" s="5">
-        <v>0.24</v>
-      </c>
-      <c r="M86" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N86" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="O86" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="P86" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="Q86" s="5">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="87" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="K87">
-        <v>5</v>
-      </c>
-      <c r="L87" s="5">
-        <v>0.24</v>
-      </c>
-      <c r="M87" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N87" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="O87" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P87" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="Q87" s="5">
-        <v>0.03</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/resources/coef.xlsx
+++ b/resources/coef.xlsx
@@ -312,49 +312,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.16797000000000001</c:v>
+                  <c:v>8.7599700000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24490200000000001</c:v>
+                  <c:v>0.164465</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26196399999999997</c:v>
+                  <c:v>0.168882</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28980400000000001</c:v>
+                  <c:v>0.17136000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35565099999999999</c:v>
+                  <c:v>0.173515</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.310058</c:v>
+                  <c:v>7.6054300000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46911900000000001</c:v>
+                  <c:v>7.5678599999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.56948699999999997</c:v>
+                  <c:v>7.3820700000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61067899999999997</c:v>
+                  <c:v>6.22768E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.65883599999999998</c:v>
+                  <c:v>6.0943299999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.65693000000000001</c:v>
+                  <c:v>5.9893200000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.65523100000000001</c:v>
+                  <c:v>5.90322E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.65397099999999997</c:v>
+                  <c:v>5.8304700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.65310500000000005</c:v>
+                  <c:v>5.7671600000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.10216600000000001</c:v>
+                  <c:v>5.7116399999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -454,49 +454,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.29003899999999999</c:v>
+                  <c:v>0.20966799999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.248367</c:v>
+                  <c:v>0.16792899999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26444099999999998</c:v>
+                  <c:v>0.17135900000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.291709</c:v>
+                  <c:v>0.173265</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.357159</c:v>
+                  <c:v>0.17502300000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.31768000000000002</c:v>
+                  <c:v>8.3676E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.47638999999999998</c:v>
+                  <c:v>8.2949999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.57657599999999998</c:v>
+                  <c:v>8.0909800000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61741900000000005</c:v>
+                  <c:v>6.9016599999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.66532000000000002</c:v>
+                  <c:v>6.7427299999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.66321399999999997</c:v>
+                  <c:v>6.6177200000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.66135200000000005</c:v>
+                  <c:v>6.51534E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.65995599999999999</c:v>
+                  <c:v>6.4289200000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.658972</c:v>
+                  <c:v>6.3538600000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.107931</c:v>
+                  <c:v>6.2880900000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -596,49 +596,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.21570900000000001</c:v>
+                  <c:v>0.13533899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35846899999999998</c:v>
+                  <c:v>0.27803099999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27202900000000002</c:v>
+                  <c:v>0.17894699999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29813699999999999</c:v>
+                  <c:v>0.17969299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36278700000000003</c:v>
+                  <c:v>0.18065100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.33229500000000001</c:v>
+                  <c:v>9.8291000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.490288</c:v>
+                  <c:v>9.6848299999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.59010300000000004</c:v>
+                  <c:v>9.4436199999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.63023600000000002</c:v>
+                  <c:v>8.1833000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.67761800000000005</c:v>
+                  <c:v>7.9725500000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.67510899999999996</c:v>
+                  <c:v>7.80719E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.67291900000000004</c:v>
+                  <c:v>7.6719899999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.67124700000000004</c:v>
+                  <c:v>7.5580800000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.67002799999999996</c:v>
+                  <c:v>7.45947E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.118781</c:v>
+                  <c:v>7.3731500000000005E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -738,49 +738,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.27744999999999997</c:v>
+                  <c:v>0.197079</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22559499999999999</c:v>
+                  <c:v>0.14515800000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25242599999999998</c:v>
+                  <c:v>0.15934400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28726400000000002</c:v>
+                  <c:v>0.16882</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35894500000000001</c:v>
+                  <c:v>0.17680899999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28395500000000001</c:v>
+                  <c:v>4.99514E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.44126500000000002</c:v>
+                  <c:v>4.7824499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.54083099999999995</c:v>
+                  <c:v>4.5164500000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.58069700000000002</c:v>
+                  <c:v>3.22946E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.62805800000000001</c:v>
+                  <c:v>3.01657E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.62563500000000005</c:v>
+                  <c:v>2.85978E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.62358100000000005</c:v>
+                  <c:v>2.7382400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.62207100000000004</c:v>
+                  <c:v>2.6403900000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.70658699999999997</c:v>
+                  <c:v>0.111153</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.15456500000000001</c:v>
+                  <c:v>0.109515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -880,49 +880,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.49243799999999999</c:v>
+                  <c:v>0.41206799999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32324900000000001</c:v>
+                  <c:v>0.242812</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.308533</c:v>
+                  <c:v>0.215451</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32067299999999999</c:v>
+                  <c:v>0.20222899999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37715900000000002</c:v>
+                  <c:v>0.195023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35751699999999997</c:v>
+                  <c:v>0.123513</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.50575599999999998</c:v>
+                  <c:v>0.112315</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.60085500000000003</c:v>
+                  <c:v>0.105188</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.63265400000000005</c:v>
+                  <c:v>8.4251900000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.67451300000000003</c:v>
+                  <c:v>7.6620099999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.66881299999999999</c:v>
+                  <c:v>7.1776699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.66355699999999995</c:v>
+                  <c:v>6.7358199999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.65946499999999997</c:v>
+                  <c:v>6.3797900000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.65627800000000003</c:v>
+                  <c:v>6.0844799999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.103398</c:v>
+                  <c:v>5.8347599999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1012,8 +1012,8 @@
         <c:axId val="424255759"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="4.0000000000000008E-2"/>
+          <c:max val="0.45"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1132,7 +1132,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2389,7 +2388,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3310,7 +3308,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3670,7 +3667,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4433,7 +4429,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5196,7 +5191,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9532,16 +9526,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>517711</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>26333</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>50987</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>121584</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10019,15 +10013,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.16797000000000001</v>
+        <v>8.7599700000000003E-2</v>
       </c>
       <c r="B1">
         <v>0.1</v>
@@ -10035,7 +10029,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.24490200000000001</v>
+        <v>0.164465</v>
       </c>
       <c r="B2">
         <v>0.3</v>
@@ -10043,7 +10037,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.26196399999999997</v>
+        <v>0.168882</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -10051,7 +10045,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.28980400000000001</v>
+        <v>0.17136000000000001</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -10059,7 +10053,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.35565099999999999</v>
+        <v>0.173515</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -10067,7 +10061,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.310058</v>
+        <v>7.6054300000000005E-2</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -10075,7 +10069,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.46911900000000001</v>
+        <v>7.5678599999999999E-2</v>
       </c>
       <c r="B7">
         <v>1.3</v>
@@ -10083,7 +10077,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.56948699999999997</v>
+        <v>7.3820700000000003E-2</v>
       </c>
       <c r="B8">
         <v>1.5</v>
@@ -10091,7 +10085,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.61067899999999997</v>
+        <v>6.22768E-2</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -10099,7 +10093,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.65883599999999998</v>
+        <v>6.0943299999999999E-2</v>
       </c>
       <c r="B10">
         <v>2.5</v>
@@ -10107,7 +10101,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.65693000000000001</v>
+        <v>5.9893200000000001E-2</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -10115,7 +10109,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.65523100000000001</v>
+        <v>5.90322E-2</v>
       </c>
       <c r="B12">
         <v>3.5</v>
@@ -10123,7 +10117,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.65397099999999997</v>
+        <v>5.8304700000000001E-2</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -10131,7 +10125,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.65310500000000005</v>
+        <v>5.7671600000000003E-2</v>
       </c>
       <c r="B14">
         <v>4.5</v>
@@ -10139,7 +10133,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.10216600000000001</v>
+        <v>5.7116399999999998E-2</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -10147,7 +10141,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.29003899999999999</v>
+        <v>0.20966799999999999</v>
       </c>
       <c r="B17">
         <v>0.1</v>
@@ -10155,7 +10149,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.248367</v>
+        <v>0.16792899999999999</v>
       </c>
       <c r="B18">
         <v>0.3</v>
@@ -10163,7 +10157,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.26444099999999998</v>
+        <v>0.17135900000000001</v>
       </c>
       <c r="B19">
         <v>0.5</v>
@@ -10171,7 +10165,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.291709</v>
+        <v>0.173265</v>
       </c>
       <c r="B20">
         <v>0.7</v>
@@ -10179,7 +10173,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.357159</v>
+        <v>0.17502300000000001</v>
       </c>
       <c r="B21">
         <v>0.9</v>
@@ -10187,7 +10181,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.31768000000000002</v>
+        <v>8.3676E-2</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -10195,7 +10189,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.47638999999999998</v>
+        <v>8.2949999999999996E-2</v>
       </c>
       <c r="B23">
         <v>1.3</v>
@@ -10203,7 +10197,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.57657599999999998</v>
+        <v>8.0909800000000004E-2</v>
       </c>
       <c r="B24">
         <v>1.5</v>
@@ -10211,7 +10205,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.61741900000000005</v>
+        <v>6.9016599999999997E-2</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -10219,7 +10213,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.66532000000000002</v>
+        <v>6.7427299999999996E-2</v>
       </c>
       <c r="B26">
         <v>2.5</v>
@@ -10227,7 +10221,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.66321399999999997</v>
+        <v>6.6177200000000005E-2</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -10235,7 +10229,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.66135200000000005</v>
+        <v>6.51534E-2</v>
       </c>
       <c r="B28">
         <v>3.5</v>
@@ -10243,7 +10237,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.65995599999999999</v>
+        <v>6.4289200000000005E-2</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -10251,7 +10245,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.658972</v>
+        <v>6.3538600000000001E-2</v>
       </c>
       <c r="B30">
         <v>4.5</v>
@@ -10259,7 +10253,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.107931</v>
+        <v>6.2880900000000003E-2</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -10267,7 +10261,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.21570900000000001</v>
+        <v>0.13533899999999999</v>
       </c>
       <c r="B33">
         <v>0.1</v>
@@ -10275,7 +10269,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.35846899999999998</v>
+        <v>0.27803099999999997</v>
       </c>
       <c r="B34">
         <v>0.3</v>
@@ -10283,7 +10277,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.27202900000000002</v>
+        <v>0.17894699999999999</v>
       </c>
       <c r="B35">
         <v>0.5</v>
@@ -10291,7 +10285,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.29813699999999999</v>
+        <v>0.17969299999999999</v>
       </c>
       <c r="B36">
         <v>0.7</v>
@@ -10299,7 +10293,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.36278700000000003</v>
+        <v>0.18065100000000001</v>
       </c>
       <c r="B37">
         <v>0.9</v>
@@ -10307,7 +10301,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.33229500000000001</v>
+        <v>9.8291000000000003E-2</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -10315,7 +10309,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.490288</v>
+        <v>9.6848299999999998E-2</v>
       </c>
       <c r="B39">
         <v>1.3</v>
@@ -10323,7 +10317,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.59010300000000004</v>
+        <v>9.4436199999999998E-2</v>
       </c>
       <c r="B40">
         <v>1.5</v>
@@ -10331,7 +10325,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.63023600000000002</v>
+        <v>8.1833000000000003E-2</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -10339,7 +10333,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.67761800000000005</v>
+        <v>7.9725500000000005E-2</v>
       </c>
       <c r="B42">
         <v>2.5</v>
@@ -10347,7 +10341,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.67510899999999996</v>
+        <v>7.80719E-2</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -10355,7 +10349,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.67291900000000004</v>
+        <v>7.6719899999999994E-2</v>
       </c>
       <c r="B44">
         <v>3.5</v>
@@ -10363,7 +10357,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.67124700000000004</v>
+        <v>7.5580800000000004E-2</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -10371,7 +10365,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.67002799999999996</v>
+        <v>7.45947E-2</v>
       </c>
       <c r="B46">
         <v>4.5</v>
@@ -10379,7 +10373,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.118781</v>
+        <v>7.3731500000000005E-2</v>
       </c>
       <c r="B47">
         <v>5</v>
@@ -10387,7 +10381,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.27744999999999997</v>
+        <v>0.197079</v>
       </c>
       <c r="B49">
         <v>0.1</v>
@@ -10395,7 +10389,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.22559499999999999</v>
+        <v>0.14515800000000001</v>
       </c>
       <c r="B50">
         <v>0.3</v>
@@ -10403,7 +10397,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0.25242599999999998</v>
+        <v>0.15934400000000001</v>
       </c>
       <c r="B51">
         <v>0.5</v>
@@ -10411,7 +10405,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>0.28726400000000002</v>
+        <v>0.16882</v>
       </c>
       <c r="B52">
         <v>0.7</v>
@@ -10419,7 +10413,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>0.35894500000000001</v>
+        <v>0.17680899999999999</v>
       </c>
       <c r="B53">
         <v>0.9</v>
@@ -10427,7 +10421,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0.28395500000000001</v>
+        <v>4.99514E-2</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -10435,7 +10429,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0.44126500000000002</v>
+        <v>4.7824499999999999E-2</v>
       </c>
       <c r="B55">
         <v>1.3</v>
@@ -10443,7 +10437,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>0.54083099999999995</v>
+        <v>4.5164500000000003E-2</v>
       </c>
       <c r="B56">
         <v>1.5</v>
@@ -10451,7 +10445,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0.58069700000000002</v>
+        <v>3.22946E-2</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -10459,7 +10453,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>0.62805800000000001</v>
+        <v>3.01657E-2</v>
       </c>
       <c r="B58">
         <v>2.5</v>
@@ -10467,7 +10461,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>0.62563500000000005</v>
+        <v>2.85978E-2</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -10475,7 +10469,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0.62358100000000005</v>
+        <v>2.7382400000000001E-2</v>
       </c>
       <c r="B60">
         <v>3.5</v>
@@ -10483,7 +10477,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0.62207100000000004</v>
+        <v>2.6403900000000001E-2</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -10491,7 +10485,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0.70658699999999997</v>
+        <v>0.111153</v>
       </c>
       <c r="B62">
         <v>4.5</v>
@@ -10499,7 +10493,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>0.15456500000000001</v>
+        <v>0.109515</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -10507,7 +10501,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>0.49243799999999999</v>
+        <v>0.41206799999999999</v>
       </c>
       <c r="B65">
         <v>0.1</v>
@@ -10515,7 +10509,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>0.32324900000000001</v>
+        <v>0.242812</v>
       </c>
       <c r="B66">
         <v>0.3</v>
@@ -10523,7 +10517,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>0.308533</v>
+        <v>0.215451</v>
       </c>
       <c r="B67">
         <v>0.5</v>
@@ -10531,7 +10525,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0.32067299999999999</v>
+        <v>0.20222899999999999</v>
       </c>
       <c r="B68">
         <v>0.7</v>
@@ -10539,7 +10533,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>0.37715900000000002</v>
+        <v>0.195023</v>
       </c>
       <c r="B69">
         <v>0.9</v>
@@ -10547,7 +10541,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>0.35751699999999997</v>
+        <v>0.123513</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -10555,7 +10549,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>0.50575599999999998</v>
+        <v>0.112315</v>
       </c>
       <c r="B71">
         <v>1.3</v>
@@ -10563,7 +10557,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>0.60085500000000003</v>
+        <v>0.105188</v>
       </c>
       <c r="B72">
         <v>1.5</v>
@@ -10571,7 +10565,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>0.63265400000000005</v>
+        <v>8.4251900000000005E-2</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -10579,7 +10573,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>0.67451300000000003</v>
+        <v>7.6620099999999997E-2</v>
       </c>
       <c r="B74">
         <v>2.5</v>
@@ -10587,7 +10581,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>0.66881299999999999</v>
+        <v>7.1776699999999999E-2</v>
       </c>
       <c r="B75">
         <v>3</v>
@@ -10595,7 +10589,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>0.66355699999999995</v>
+        <v>6.7358199999999993E-2</v>
       </c>
       <c r="B76">
         <v>3.5</v>
@@ -10603,7 +10597,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>0.65946499999999997</v>
+        <v>6.3797900000000005E-2</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -10611,7 +10605,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>0.65627800000000003</v>
+        <v>6.0844799999999997E-2</v>
       </c>
       <c r="B78">
         <v>4.5</v>
@@ -10619,7 +10613,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>0.103398</v>
+        <v>5.8347599999999999E-2</v>
       </c>
       <c r="B79">
         <v>5</v>
